--- a/similarities/split_global/harmonic_similarity_timestamps_348.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_348.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>isophonics_4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D/5', 'A/3', 'D'], ['G', 'A', 'D']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['G', 'A', 'D']]</t>
+          <t>['G:7', 'C:min', 'F:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:21.740249', '0:00:26.767369'), ('0:00:09.979342', '0:00:16.701519')]</t>
+          <t>('0:00:07.540000', '0:00:18')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:06.536000', '0:00:11.853000'), ('0:00:44.836000', '0:00:49.319000')]</t>
+          <t>('0:02:36.152000', '0:02:39.022000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=21.740249', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=9.979342']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=7.54</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=44.836']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=156.152</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab', 'Eb']]</t>
+          <t>['G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:16.070000', '0:02:21.510000')]</t>
+          <t>('0:00:07', '0:00:09.280000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:14.928466', '0:00:21.522933')]</t>
+          <t>('0:00:55.230000', '0:01:05.420000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=7.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['A:min', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['D#:7/C#', 'G#:maj/C', 'D#:maj/A#'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['C:min', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:54.400000', '0:01:01.440000'), ('0:00:58.560000', '0:01:02.900000'), ('0:01:08.820000', '0:01:17.920000')]</t>
+          <t>('0:00:41.140000', '0:00:53.020000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:15.640000', '0:00:24.280000'), ('0:01:02.260000', '0:01:04.580000'), ('0:01:04.080000', '0:01:13.880000')]</t>
+          <t>('0:00:23.080000', '0:00:30.020000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=54.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=58.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=41.14</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=15.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=62.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=23.08</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:47.580000', '0:00:50.040000'), ('0:01:37.880000', '0:01:48.980000')]</t>
+          <t>('0:01:03.600000', '0:01:06.040000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:14.100000', '0:01:20.040000'), ('0:00:25.480000', '0:00:32.580000')]</t>
+          <t>('0:00:00.279000', '0:00:16.531000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=97.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=74.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=25.48']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=0.279</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>jaah_69</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:min', 'A#:7', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A'], ['D:min', 'A:7/E', 'D:min'], ['D:maj/A', 'A:7', 'D:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:36.180000', '0:00:37.980000'), ('0:00:09.100000', '0:00:13.860000'), ('0:00:35.880000', '0:00:37.420000')]</t>
+          <t>('0:00:13.390000', '0:00:17.230000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:25.040000', '0:00:42.400000'), ('0:00:01.440000', '0:00:06.660000'), ('0:00:49.400000', '0:00:56.760000')]</t>
+          <t>('0:00:33.480000', '0:00:45.590000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=36.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=35.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=13.39</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=25.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=49.4']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D#:min', 'E/G#', 'D#:min/A#'], ['F:hdim7/G#', 'A#:7', 'D#:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:49.260000', '0:00:52.760000'), ('0:01:51.620000', '0:02:06.860000')]</t>
+          <t>('0:01:14.400000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:03:19.440000', '0:03:22.060000'), ('0:00:23.840000', '0:00:31.400000')]</t>
+          <t>('0:04:11.500000', '0:04:17.660000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=49.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=111.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=199.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=23.84']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_57</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_171</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Gb', 'G:dim7', 'Db/5']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'G:dim7', 'E']]</t>
+          <t>['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:02:36.770000', '0:02:37.870000')]</t>
+          <t>('0:01:03.380000', '0:01:05.720000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:10.510869', '0:00:17.488465')]</t>
+          <t>('0:01:06.880000', '0:01:19')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-57#t=156.77']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=63.38</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-171#t=10.510869']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=66.88</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>schubert-winterreise_148</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:19.420000', '0:01:26.020000')]</t>
+          <t>('0:00:36.320000', '0:00:51.920000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
+          <t>('0:00:30.500000', '0:00:41.370000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=79.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=36.32</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.5</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['D', 'G', 'D', 'A']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:55.680000', '0:01:06.100000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:46.932280', '0:00:54.037586')]</t>
+          <t>('0:00:04.063000', '0:00:08.399000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=4.063</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'D:maj', 'G:maj'], ['A:maj', 'D:maj', 'G:maj']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D'], ['E', 'A', 'D']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:21.224000', '0:00:29.739000'), ('0:01:00.898000', '0:01:07.056000')]</t>
+          <t>('0:00:13.420000', '0:00:19.500000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:36.809519', '0:00:45.017773'), ('0:00:02.385936', '0:00:06.194008')]</t>
+          <t>('0:01:23.200000', '0:01:31.140000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=21.224', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=60.898']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-30#t=36.809519', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-30#t=2.385936']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=83.2</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>jaah_37</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['A:min7', 'D:min7', 'G:7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['C:min7', 'F:min7', 'Bb:7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:27.280000', '0:00:57.900000')]</t>
+          <t>('0:00:35.150000', '0:00:41.300000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:47.020000', '0:01:01.580000')]</t>
+          <t>('0:00:16.910000', '0:00:18.470000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=27.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-37#t=35.15</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=16.91</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>isophonics_296</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_182</t>
-        </is>
-      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G/3']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D:maj', 'G:maj', 'D/3']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:05.146000', '0:00:09.474000')]</t>
+          <t>('0:00:09.280000', '0:00:11.080000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:01:08.669000', '0:01:14.662000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=9.28</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=68.669</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:40.280000', '0:00:45.520000')]</t>
+          <t>('0:00:39.800000', '0:00:45.400000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:36.600000', '0:00:39')]</t>
+          <t>('0:00:41.080000', '0:00:42.940000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=40.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=39.8</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=36.6']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=41.08</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>schubert-winterreise_90</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:07.560000', '0:00:21.800000')]</t>
+          <t>('0:02:34.760000', '0:02:39.840000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:21.780000', '0:00:31.740000')]</t>
+          <t>('0:00:02.612267', '0:00:17.443474')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=7.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>schubert-winterreise_50</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A#:7', 'D#:min/A#', 'D#:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['A:7', 'D:min', 'D:min/A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:11.380000', '0:00:24.380000')]</t>
+          <t>('0:00:36.180000', '0:00:37.980000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:12.430000', '0:00:17.230000')]</t>
+          <t>('0:00:25.140000', '0:00:42.540000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=11.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=36.18</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=25.14</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
